--- a/config_1.19/activity_042_hlfl_config.xlsx
+++ b/config_1.19/activity_042_hlfl_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础配置" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="76">
   <si>
     <t>index|索引</t>
   </si>
@@ -202,14 +202,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中种出1次金苹果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"game_MiniGame",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -248,15 +240,99 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在3D捕鱼中使用1000及以上炮倍捕获1条话费鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果消消乐使用1万及以上档次，出现1次幸运时刻</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水浒消消乐使用1万及以上档次，累计召唤3次英雄</t>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在龙王争霸中累计赢金30万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂欢庆典</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂欢庆典</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼深海探险当前层数+5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼深海探险当前层数+10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中通过击杀话费鱼累计获得50话费碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中通过击杀话费鱼累计获得150话费碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中通过击杀话费鱼累计获得300话费碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>150</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中累计赢金30万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中累计赢金80万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中累计赢金150万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在龙王争霸中累计赢金80万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在龙王争霸中累计赢金150万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中连胜2局</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计纯赢80万</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -264,55 +340,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在冲金鸡财神模式中连胜2局</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在冲金鸡财神模式中累胜5局</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在龙王争霸中累计赢金10万</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在龙王争霸中累计赢金30万</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中连胜2局</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
+    <t>800000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -320,20 +364,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐福利</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐福利</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐福利</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>800000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -475,7 +511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -495,16 +531,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -520,6 +550,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -801,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -835,11 +873,11 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>36</v>
+      <c r="B2" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -855,7 +893,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -866,7 +904,7 @@
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
     <col min="6" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="35.5" style="19" customWidth="1"/>
+    <col min="7" max="7" width="35.5" style="17" customWidth="1"/>
     <col min="8" max="8" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -889,8 +927,8 @@
       <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>37</v>
+      <c r="G1" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -898,7 +936,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -910,16 +948,16 @@
         <v>1</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="19" t="s">
-        <v>38</v>
+      <c r="G2" s="17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -931,8 +969,8 @@
         <v>1</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="19" t="s">
-        <v>39</v>
+      <c r="G3" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -953,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1037,253 +1075,280 @@
       </c>
     </row>
     <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20">
-        <v>1000175</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1000199</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="18">
+        <v>1</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+    </row>
+    <row r="3" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1000200</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="10">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E3" s="18">
+        <v>1</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-    </row>
-    <row r="3" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="20">
-        <v>1000176</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="20" t="s">
+      <c r="G3" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="11"/>
+      <c r="O3" s="14"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+    </row>
+    <row r="4" spans="1:18" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18">
+        <v>1000201</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="L4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="14"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+    </row>
+    <row r="5" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1000202</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="E5" s="18">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="16"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-    </row>
-    <row r="4" spans="1:18" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="20">
-        <v>1000177</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="G5" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="L5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="14"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+    </row>
+    <row r="6" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18">
+        <v>1000203</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="L4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="16"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-    </row>
-    <row r="5" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="20">
-        <v>1000178</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="G6" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="L6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="14"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18">
+        <v>1000204</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="L5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="16"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-    </row>
-    <row r="6" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20">
-        <v>1000179</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="G7" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="L7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+    </row>
+    <row r="8" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18">
+        <v>1000205</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="L6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="16"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-    </row>
-    <row r="7" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="20">
-        <v>1000180</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="G8" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12" t="s">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="21">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18">
+        <v>1000206</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="L7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-    </row>
-    <row r="8" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="20">
-        <v>1000181</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="G9" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10" s="21">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18">
+        <v>1000207</v>
+      </c>
+      <c r="C10" s="18">
+        <v>300</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="20">
-        <v>1000182</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G10" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A11" s="20"/>
       <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1297,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1383,203 +1448,276 @@
       </c>
     </row>
     <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20">
-        <v>1000183</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="10">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1000208</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="18">
+        <v>1</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
     </row>
     <row r="3" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="20">
-        <v>1000184</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="B3" s="18">
+        <v>1000209</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="18">
+        <v>1</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="16"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
+      <c r="G3" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="11"/>
+      <c r="O3" s="14"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
     </row>
     <row r="4" spans="1:18" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="20">
-        <v>1000185</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="B4" s="18">
+        <v>1000210</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="L4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="14"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+    </row>
+    <row r="5" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1000211</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="18">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="L4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="16"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-    </row>
-    <row r="5" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="20">
-        <v>1000186</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="L5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="14"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+    </row>
+    <row r="6" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18">
+        <v>1000212</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="L5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="16"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-    </row>
-    <row r="6" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20">
-        <v>1000187</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="L6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="14"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18">
+        <v>1000213</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="L7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A8" s="21">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18">
+        <v>1000214</v>
+      </c>
+      <c r="C8" s="18">
+        <v>2</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="L6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="16"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-    </row>
-    <row r="7" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="20">
-        <v>1000188</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="L8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12" t="s">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" s="21">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18">
+        <v>1000215</v>
+      </c>
+      <c r="C9" s="18">
+        <v>800000</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="L7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D9" s="1" t="s">
-        <v>18</v>
+      <c r="G9" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10" s="21">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18">
+        <v>1000216</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
